--- a/excel/捕鱼_配置表v14.0.xlsx
+++ b/excel/捕鱼_配置表v14.0.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="789" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="789" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="config&amp;w" sheetId="35" r:id="rId1"/>
     <sheet name="dialogue&amp;s" sheetId="20" r:id="rId2"/>
     <sheet name="weaponlevelup&amp;p" sheetId="36" r:id="rId3"/>
-    <sheet name="drop" sheetId="39" r:id="rId4"/>
-    <sheet name="fishinfo" sheetId="33" r:id="rId5"/>
-    <sheet name="seas" sheetId="38" r:id="rId6"/>
+    <sheet name="drop&amp;ss" sheetId="39" r:id="rId4"/>
+    <sheet name="fishinfo&amp;s" sheetId="33" r:id="rId5"/>
+    <sheet name="seas&amp;p" sheetId="38" r:id="rId6"/>
     <sheet name="fishgroup" sheetId="41" r:id="rId7"/>
     <sheet name="event" sheetId="40" r:id="rId8"/>
     <sheet name="boss" sheetId="43" r:id="rId9"/>
@@ -13468,7 +13468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -17858,7 +17858,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -20269,8 +20269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
